--- a/data/trans_bre/PER_DISPO_VERDE-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Edad-trans_bre.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>-1,46%</t>
         </is>
       </c>
     </row>
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 1,42</t>
+          <t>-9,7; 4,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 1,34</t>
+          <t>-10,44; 5,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -584,12 +584,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>1,19%</t>
         </is>
       </c>
     </row>
@@ -602,19 +602,19 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 18,46</t>
+          <t>-5,64; 7,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 23,59</t>
+          <t>-6,36; 8,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>-1,55%</t>
         </is>
       </c>
     </row>
@@ -642,19 +642,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 12,54</t>
+          <t>-7,43; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 14,98</t>
+          <t>-8,06; 6,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>-1,45%</t>
         </is>
       </c>
     </row>
@@ -682,19 +682,19 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,35</t>
+          <t>-7,87; 4,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 6,05</t>
+          <t>-8,61; 5,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>-3,56%</t>
         </is>
       </c>
     </row>
@@ -722,19 +722,19 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,59</t>
+          <t>-12,05; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 9,12</t>
+          <t>-13,12; 3,5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -762,19 +762,19 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 5,12</t>
+          <t>-8,91; 5,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 6,02</t>
+          <t>-9,84; 6,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-3,43%</t>
         </is>
       </c>
     </row>
@@ -802,19 +802,19 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 5,07</t>
+          <t>-11,86; 6,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 5,95</t>
+          <t>-13,75; 7,9</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -842,150 +842,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 3,45</t>
+          <t>-4,44; 0,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 3,92</t>
+          <t>-5,02; 0,77</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 5,43</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 6,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-11,51; 6,74</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 8,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 1,06</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 1,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/PER_DISPO_VERDE-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PER_DISPO_VERDE-Edad-trans_bre.xlsx
@@ -562,12 +562,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 4,87</t>
+          <t>-8,87; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 5,58</t>
+          <t>-9,63; 6,07</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,23</t>
+          <t>-5,58; 7,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 8,77</t>
+          <t>-6,19; 8,62</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 5,41</t>
+          <t>-7,64; 5,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 6,42</t>
+          <t>-8,29; 6,83</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 4,59</t>
+          <t>-7,5; 4,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 5,35</t>
+          <t>-8,17; 5,67</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 3,06</t>
+          <t>-11,13; 3,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 3,5</t>
+          <t>-12,22; 3,37</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 5,12</t>
+          <t>-9,69; 4,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 6,14</t>
+          <t>-10,69; 5,76</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 6,0</t>
+          <t>-11,04; 6,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 7,9</t>
+          <t>-12,55; 8,46</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,66</t>
+          <t>-4,37; 0,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,77</t>
+          <t>-4,94; 1,07</t>
         </is>
       </c>
     </row>
